--- a/database/excel/phones.xlsx
+++ b/database/excel/phones.xlsx
@@ -1,12 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
+  <bookViews>
+    <workbookView windowWidth="21500" windowHeight="10400"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Hoja 1" sheetId="1" r:id="rId4"/>
+    <sheet name="Hoja 1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
@@ -928,36 +931,198 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_-* #,##0\ &quot;€&quot;_-;\-* #,##0\ &quot;€&quot;_-;_-* &quot;-&quot;\ &quot;€&quot;_-;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* \-??\ &quot;€&quot;_-;_-@_-"/>
+    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+  </numFmts>
+  <fonts count="24">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9.0"/>
+      <sz val="9"/>
       <color rgb="FF1F1F1F"/>
       <name val="&quot;Google Sans&quot;"/>
+      <charset val="134"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -965,40 +1130,515 @@
         <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
-    <border/>
+  <borders count="9">
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+  <cellStyleXfs count="49">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="30" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="4">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+  <cellStyles count="49">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="60% - Énfasis6" xfId="1" builtinId="52"/>
+    <cellStyle name="40% - Énfasis6" xfId="2" builtinId="51"/>
+    <cellStyle name="20% - Énfasis6" xfId="3" builtinId="50"/>
+    <cellStyle name="40% - Énfasis5" xfId="4" builtinId="47"/>
+    <cellStyle name="20% - Énfasis5" xfId="5" builtinId="46"/>
+    <cellStyle name="Énfasis5" xfId="6" builtinId="45"/>
+    <cellStyle name="40% - Énfasis4" xfId="7" builtinId="43"/>
+    <cellStyle name="Énfasis4" xfId="8" builtinId="41"/>
+    <cellStyle name="40% - Énfasis3" xfId="9" builtinId="39"/>
+    <cellStyle name="Celda vinculada" xfId="10" builtinId="24"/>
+    <cellStyle name="20% - Énfasis3" xfId="11" builtinId="38"/>
+    <cellStyle name="40% - Énfasis2" xfId="12" builtinId="35"/>
+    <cellStyle name="60% - Énfasis1" xfId="13" builtinId="32"/>
+    <cellStyle name="20% - Énfasis1" xfId="14" builtinId="30"/>
+    <cellStyle name="Moneda [0]" xfId="15" builtinId="7"/>
+    <cellStyle name="60% - Énfasis4" xfId="16" builtinId="44"/>
+    <cellStyle name="Énfasis1" xfId="17" builtinId="29"/>
+    <cellStyle name="Incorrecto" xfId="18" builtinId="27"/>
+    <cellStyle name="Correcto" xfId="19" builtinId="26"/>
+    <cellStyle name="Énfasis6" xfId="20" builtinId="49"/>
+    <cellStyle name="40% - Énfasis1" xfId="21" builtinId="31"/>
+    <cellStyle name="Total" xfId="22" builtinId="25"/>
+    <cellStyle name="60% - Énfasis2" xfId="23" builtinId="36"/>
+    <cellStyle name="Énfasis2" xfId="24" builtinId="33"/>
+    <cellStyle name="Moneda" xfId="25" builtinId="4"/>
+    <cellStyle name="Porcentaje" xfId="26" builtinId="5"/>
+    <cellStyle name="Texto explicativo" xfId="27" builtinId="53"/>
+    <cellStyle name="Título 1" xfId="28" builtinId="16"/>
+    <cellStyle name="Celda de comprobación" xfId="29" builtinId="23"/>
+    <cellStyle name="Cálculo" xfId="30" builtinId="22"/>
+    <cellStyle name="Título 4" xfId="31" builtinId="19"/>
+    <cellStyle name="Título 3" xfId="32" builtinId="18"/>
+    <cellStyle name="Título 2" xfId="33" builtinId="17"/>
+    <cellStyle name="20% - Énfasis2" xfId="34" builtinId="34"/>
+    <cellStyle name="Neutro" xfId="35" builtinId="28"/>
+    <cellStyle name="60% - Énfasis3" xfId="36" builtinId="40"/>
+    <cellStyle name="Título" xfId="37" builtinId="15"/>
+    <cellStyle name="Salida" xfId="38" builtinId="21"/>
+    <cellStyle name="60% - Énfasis5" xfId="39" builtinId="48"/>
+    <cellStyle name="Coma" xfId="40" builtinId="3"/>
+    <cellStyle name="Entrada" xfId="41" builtinId="20"/>
+    <cellStyle name="Nota" xfId="42" builtinId="10"/>
+    <cellStyle name="20% - Énfasis4" xfId="43" builtinId="42"/>
+    <cellStyle name="Hipervínculo visitado" xfId="44" builtinId="9"/>
+    <cellStyle name="Coma [0]" xfId="45" builtinId="6"/>
+    <cellStyle name="Hipervínculo" xfId="46" builtinId="8"/>
+    <cellStyle name="Énfasis3" xfId="47" builtinId="37"/>
+    <cellStyle name="Texto de advertencia" xfId="48" builtinId="11"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -1188,24 +1828,29 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:G149"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A125" workbookViewId="0">
+      <selection activeCell="D130" sqref="D130"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.6339285714286" defaultRowHeight="15.75" customHeight="1" outlineLevelCol="6"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="16.25"/>
-    <col customWidth="1" min="7" max="7" width="15.0"/>
+    <col min="1" max="1" width="16.25" customWidth="1"/>
+    <col min="3" max="3" width="5.07142857142857" customWidth="1"/>
+    <col min="7" max="7" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" customHeight="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1228,12 +1873,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" customHeight="1" spans="1:6">
       <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B2" s="1">
-        <v>4507.0</v>
+        <v>4507</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>8</v>
@@ -1245,15 +1890,15 @@
         <v>10</v>
       </c>
       <c r="F2" s="1">
-        <v>2.711089477E9</v>
-      </c>
-    </row>
-    <row r="3">
+        <v>2711089477</v>
+      </c>
+    </row>
+    <row r="3" customHeight="1" spans="1:6">
       <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B3" s="1">
-        <v>4509.0</v>
+        <v>4509</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>11</v>
@@ -1265,15 +1910,15 @@
         <v>13</v>
       </c>
       <c r="F3" s="1">
-        <v>2.711000771E9</v>
-      </c>
-    </row>
-    <row r="4">
+        <v>2711000771</v>
+      </c>
+    </row>
+    <row r="4" customHeight="1" spans="1:6">
       <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B4" s="1">
-        <v>4511.0</v>
+        <v>4511</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>14</v>
@@ -1285,15 +1930,15 @@
         <v>16</v>
       </c>
       <c r="F4" s="1">
-        <v>2.711134731E9</v>
-      </c>
-    </row>
-    <row r="5">
+        <v>2711134731</v>
+      </c>
+    </row>
+    <row r="5" customHeight="1" spans="1:6">
       <c r="A5" s="1" t="s">
         <v>17</v>
       </c>
       <c r="B5" s="1">
-        <v>303.0</v>
+        <v>303</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>18</v>
@@ -1302,15 +1947,15 @@
         <v>19</v>
       </c>
       <c r="F5" s="1">
-        <v>2.941038029E9</v>
-      </c>
-    </row>
-    <row r="6">
+        <v>2941038029</v>
+      </c>
+    </row>
+    <row r="6" customHeight="1" spans="1:6">
       <c r="A6" s="1" t="s">
         <v>17</v>
       </c>
       <c r="B6" s="1">
-        <v>4900.0</v>
+        <v>4900</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>20</v>
@@ -1319,15 +1964,15 @@
         <v>21</v>
       </c>
       <c r="F6" s="1">
-        <v>2.711001118E9</v>
-      </c>
-    </row>
-    <row r="7">
+        <v>2711001118</v>
+      </c>
+    </row>
+    <row r="7" customHeight="1" spans="1:6">
       <c r="A7" s="1" t="s">
         <v>17</v>
       </c>
       <c r="B7" s="1">
-        <v>309.0</v>
+        <v>309</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>22</v>
@@ -1336,15 +1981,15 @@
         <v>23</v>
       </c>
       <c r="F7" s="1">
-        <v>2.71147757E9</v>
-      </c>
-    </row>
-    <row r="8">
+        <v>2711477570</v>
+      </c>
+    </row>
+    <row r="8" customHeight="1" spans="1:6">
       <c r="A8" s="1" t="s">
         <v>17</v>
       </c>
       <c r="B8" s="1">
-        <v>305.0</v>
+        <v>305</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>24</v>
@@ -1353,15 +1998,15 @@
         <v>25</v>
       </c>
       <c r="F8" s="1">
-        <v>2.712753924E9</v>
-      </c>
-    </row>
-    <row r="9">
+        <v>2712753924</v>
+      </c>
+    </row>
+    <row r="9" customHeight="1" spans="1:6">
       <c r="A9" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B9" s="1">
-        <v>5516.0</v>
+        <v>5516</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>8</v>
@@ -1373,15 +2018,15 @@
         <v>28</v>
       </c>
       <c r="F9" s="1">
-        <v>2.717290218E9</v>
-      </c>
-    </row>
-    <row r="10">
+        <v>2717290218</v>
+      </c>
+    </row>
+    <row r="10" customHeight="1" spans="1:6">
       <c r="A10" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B10" s="1">
-        <v>5318.0</v>
+        <v>5318</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>29</v>
@@ -1390,15 +2035,15 @@
         <v>30</v>
       </c>
       <c r="F10" s="1">
-        <v>2.71211871E9</v>
-      </c>
-    </row>
-    <row r="11">
+        <v>2712118710</v>
+      </c>
+    </row>
+    <row r="11" customHeight="1" spans="1:6">
       <c r="A11" s="1" t="s">
         <v>31</v>
       </c>
       <c r="B11" s="1">
-        <v>101.0</v>
+        <v>101</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>32</v>
@@ -1410,15 +2055,15 @@
         <v>34</v>
       </c>
       <c r="F11" s="1">
-        <v>2.71122897E9</v>
-      </c>
-    </row>
-    <row r="12">
+        <v>2711228970</v>
+      </c>
+    </row>
+    <row r="12" customHeight="1" spans="1:6">
       <c r="A12" s="1" t="s">
         <v>35</v>
       </c>
       <c r="B12" s="1">
-        <v>109.0</v>
+        <v>109</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>32</v>
@@ -1430,15 +2075,15 @@
         <v>37</v>
       </c>
       <c r="F12" s="1">
-        <v>2.299857465E9</v>
-      </c>
-    </row>
-    <row r="13">
+        <v>2299857465</v>
+      </c>
+    </row>
+    <row r="13" customHeight="1" spans="1:6">
       <c r="A13" s="1" t="s">
         <v>35</v>
       </c>
       <c r="B13" s="1">
-        <v>110.0</v>
+        <v>110</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>32</v>
@@ -1450,15 +2095,15 @@
         <v>39</v>
       </c>
       <c r="F13" s="1">
-        <v>2.717297674E9</v>
-      </c>
-    </row>
-    <row r="14">
+        <v>2717297674</v>
+      </c>
+    </row>
+    <row r="14" customHeight="1" spans="1:6">
       <c r="A14" s="1" t="s">
         <v>40</v>
       </c>
       <c r="B14" s="1">
-        <v>316.0</v>
+        <v>316</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>41</v>
@@ -1470,15 +2115,15 @@
         <v>39</v>
       </c>
       <c r="F14" s="1">
-        <v>2.717297674E9</v>
-      </c>
-    </row>
-    <row r="15">
+        <v>2717297674</v>
+      </c>
+    </row>
+    <row r="15" customHeight="1" spans="1:6">
       <c r="A15" s="1" t="s">
         <v>43</v>
       </c>
       <c r="B15" s="1">
-        <v>226.0</v>
+        <v>226</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>44</v>
@@ -1487,15 +2132,15 @@
         <v>45</v>
       </c>
       <c r="F15" s="1">
-        <v>2.711217485E9</v>
-      </c>
-    </row>
-    <row r="16">
+        <v>2711217485</v>
+      </c>
+    </row>
+    <row r="16" customHeight="1" spans="1:6">
       <c r="A16" s="1" t="s">
         <v>46</v>
       </c>
       <c r="B16" s="1">
-        <v>103.0</v>
+        <v>103</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>41</v>
@@ -1507,15 +2152,15 @@
         <v>48</v>
       </c>
       <c r="F16" s="1">
-        <v>2.711722075E9</v>
-      </c>
-    </row>
-    <row r="17">
+        <v>2711722075</v>
+      </c>
+    </row>
+    <row r="17" customHeight="1" spans="1:6">
       <c r="A17" s="1" t="s">
         <v>49</v>
       </c>
       <c r="B17" s="1">
-        <v>614.0</v>
+        <v>614</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>14</v>
@@ -1527,15 +2172,15 @@
         <v>51</v>
       </c>
       <c r="F17" s="1">
-        <v>2.711926667E9</v>
-      </c>
-    </row>
-    <row r="18">
+        <v>2711926667</v>
+      </c>
+    </row>
+    <row r="18" customHeight="1" spans="1:6">
       <c r="A18" s="1" t="s">
         <v>49</v>
       </c>
       <c r="B18" s="1">
-        <v>604.0</v>
+        <v>604</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>32</v>
@@ -1547,15 +2192,15 @@
         <v>53</v>
       </c>
       <c r="F18" s="1">
-        <v>2.714015516E9</v>
-      </c>
-    </row>
-    <row r="19">
+        <v>2714015516</v>
+      </c>
+    </row>
+    <row r="19" customHeight="1" spans="1:6">
       <c r="A19" s="1" t="s">
         <v>54</v>
       </c>
       <c r="B19" s="1">
-        <v>307.0</v>
+        <v>307</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>32</v>
@@ -1567,15 +2212,15 @@
         <v>56</v>
       </c>
       <c r="F19" s="1">
-        <v>2.717007186E9</v>
-      </c>
-    </row>
-    <row r="20">
+        <v>2717007186</v>
+      </c>
+    </row>
+    <row r="20" customHeight="1" spans="1:6">
       <c r="A20" s="1" t="s">
         <v>54</v>
       </c>
       <c r="B20" s="1">
-        <v>313.0</v>
+        <v>313</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>8</v>
@@ -1587,15 +2232,15 @@
         <v>58</v>
       </c>
       <c r="F20" s="1">
-        <v>2.711967303E9</v>
-      </c>
-    </row>
-    <row r="21">
+        <v>2711967303</v>
+      </c>
+    </row>
+    <row r="21" customHeight="1" spans="1:5">
       <c r="A21" s="1" t="s">
         <v>54</v>
       </c>
       <c r="B21" s="1">
-        <v>311.0</v>
+        <v>311</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>32</v>
@@ -1607,12 +2252,12 @@
         <v>60</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" customHeight="1" spans="1:5">
       <c r="A22" s="1" t="s">
         <v>54</v>
       </c>
       <c r="B22" s="1">
-        <v>307.0</v>
+        <v>307</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>11</v>
@@ -1624,12 +2269,12 @@
         <v>62</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" customHeight="1" spans="1:6">
       <c r="A23" s="1" t="s">
         <v>54</v>
       </c>
       <c r="B23" s="1">
-        <v>301.0</v>
+        <v>301</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>8</v>
@@ -1641,15 +2286,15 @@
         <v>64</v>
       </c>
       <c r="F23" s="1">
-        <v>2.713155024E9</v>
-      </c>
-    </row>
-    <row r="24">
+        <v>2713155024</v>
+      </c>
+    </row>
+    <row r="24" customHeight="1" spans="1:6">
       <c r="A24" s="1" t="s">
         <v>54</v>
       </c>
       <c r="B24" s="1">
-        <v>305.0</v>
+        <v>305</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>32</v>
@@ -1661,15 +2306,15 @@
         <v>66</v>
       </c>
       <c r="F24" s="1">
-        <v>2.71120855E9</v>
-      </c>
-    </row>
-    <row r="25">
+        <v>2711208550</v>
+      </c>
+    </row>
+    <row r="25" customHeight="1" spans="1:7">
       <c r="A25" s="1" t="s">
         <v>67</v>
       </c>
       <c r="B25" s="1">
-        <v>5313.0</v>
+        <v>5313</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>68</v>
@@ -1678,15 +2323,15 @@
         <v>69</v>
       </c>
       <c r="G25" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" customHeight="1" spans="1:6">
       <c r="A26" s="1" t="s">
         <v>67</v>
       </c>
       <c r="B26" s="1">
-        <v>5315.0</v>
+        <v>5315</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>70</v>
@@ -1695,15 +2340,15 @@
         <v>71</v>
       </c>
       <c r="F26" s="1">
-        <v>2.711398654E9</v>
-      </c>
-    </row>
-    <row r="27">
+        <v>2711398654</v>
+      </c>
+    </row>
+    <row r="27" customHeight="1" spans="1:6">
       <c r="A27" s="3" t="s">
         <v>72</v>
       </c>
       <c r="B27" s="1">
-        <v>304.0</v>
+        <v>304</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>73</v>
@@ -1712,15 +2357,15 @@
         <v>74</v>
       </c>
       <c r="F27" s="1">
-        <v>2.717063753E9</v>
-      </c>
-    </row>
-    <row r="28">
+        <v>2717063753</v>
+      </c>
+    </row>
+    <row r="28" customHeight="1" spans="1:6">
       <c r="A28" s="1" t="s">
         <v>17</v>
       </c>
       <c r="B28" s="1">
-        <v>4910.0</v>
+        <v>4910</v>
       </c>
       <c r="D28" s="1" t="s">
         <v>75</v>
@@ -1729,15 +2374,15 @@
         <v>76</v>
       </c>
       <c r="F28" s="1">
-        <v>5.529206225E9</v>
-      </c>
-    </row>
-    <row r="29">
+        <v>5529206225</v>
+      </c>
+    </row>
+    <row r="29" customHeight="1" spans="1:6">
       <c r="A29" s="1" t="s">
         <v>77</v>
       </c>
       <c r="B29" s="1">
-        <v>5106.0</v>
+        <v>5106</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>11</v>
@@ -1749,15 +2394,15 @@
         <v>79</v>
       </c>
       <c r="F29" s="1">
-        <v>2.71131632E9</v>
-      </c>
-    </row>
-    <row r="30">
+        <v>2711316320</v>
+      </c>
+    </row>
+    <row r="30" customHeight="1" spans="1:6">
       <c r="A30" s="1" t="s">
         <v>80</v>
       </c>
       <c r="B30" s="1">
-        <v>4917.0</v>
+        <v>4917</v>
       </c>
       <c r="D30" s="1" t="s">
         <v>81</v>
@@ -1766,15 +2411,15 @@
         <v>82</v>
       </c>
       <c r="F30" s="1">
-        <v>7.716061659E9</v>
-      </c>
-    </row>
-    <row r="31">
+        <v>7716061659</v>
+      </c>
+    </row>
+    <row r="31" customHeight="1" spans="1:6">
       <c r="A31" s="1" t="s">
         <v>43</v>
       </c>
       <c r="B31" s="1">
-        <v>214.0</v>
+        <v>214</v>
       </c>
       <c r="D31" s="1" t="s">
         <v>83</v>
@@ -1783,15 +2428,15 @@
         <v>84</v>
       </c>
       <c r="F31" s="1">
-        <v>2.711941331E9</v>
-      </c>
-    </row>
-    <row r="32">
+        <v>2711941331</v>
+      </c>
+    </row>
+    <row r="32" customHeight="1" spans="1:6">
       <c r="A32" s="1" t="s">
         <v>85</v>
       </c>
       <c r="B32" s="1">
-        <v>109.0</v>
+        <v>109</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>8</v>
@@ -1803,15 +2448,15 @@
         <v>87</v>
       </c>
       <c r="F32" s="1">
-        <v>2.715931736E9</v>
-      </c>
-    </row>
-    <row r="33">
+        <v>2715931736</v>
+      </c>
+    </row>
+    <row r="33" customHeight="1" spans="1:6">
       <c r="A33" s="1" t="s">
         <v>88</v>
       </c>
       <c r="B33" s="1">
-        <v>5103.0</v>
+        <v>5103</v>
       </c>
       <c r="D33" s="1" t="s">
         <v>89</v>
@@ -1820,15 +2465,15 @@
         <v>90</v>
       </c>
       <c r="F33" s="1">
-        <v>2.294309857E9</v>
-      </c>
-    </row>
-    <row r="34">
+        <v>2294309857</v>
+      </c>
+    </row>
+    <row r="34" customHeight="1" spans="1:6">
       <c r="A34" s="1" t="s">
         <v>88</v>
       </c>
       <c r="B34" s="1">
-        <v>5109.0</v>
+        <v>5109</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>14</v>
@@ -1840,15 +2485,15 @@
         <v>92</v>
       </c>
       <c r="F34" s="1">
-        <v>2.71185097E9</v>
-      </c>
-    </row>
-    <row r="35">
+        <v>2711850970</v>
+      </c>
+    </row>
+    <row r="35" customHeight="1" spans="1:6">
       <c r="A35" s="1" t="s">
         <v>88</v>
       </c>
       <c r="B35" s="1">
-        <v>5110.0</v>
+        <v>5110</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>41</v>
@@ -1860,15 +2505,15 @@
         <v>94</v>
       </c>
       <c r="F35" s="1">
-        <v>2.711735618E9</v>
-      </c>
-    </row>
-    <row r="36">
+        <v>2711735618</v>
+      </c>
+    </row>
+    <row r="36" customHeight="1" spans="1:6">
       <c r="A36" s="1" t="s">
         <v>88</v>
       </c>
       <c r="B36" s="1">
-        <v>5112.0</v>
+        <v>5112</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>14</v>
@@ -1880,15 +2525,15 @@
         <v>96</v>
       </c>
       <c r="F36" s="1">
-        <v>2.711833367E9</v>
-      </c>
-    </row>
-    <row r="37">
+        <v>2711833367</v>
+      </c>
+    </row>
+    <row r="37" customHeight="1" spans="1:6">
       <c r="A37" s="1" t="s">
         <v>88</v>
       </c>
       <c r="B37" s="1">
-        <v>5102.0</v>
+        <v>5102</v>
       </c>
       <c r="D37" s="1" t="s">
         <v>97</v>
@@ -1897,15 +2542,15 @@
         <v>98</v>
       </c>
       <c r="F37" s="1">
-        <v>2.711244655E9</v>
-      </c>
-    </row>
-    <row r="38">
+        <v>2711244655</v>
+      </c>
+    </row>
+    <row r="38" customHeight="1" spans="1:6">
       <c r="A38" s="1" t="s">
         <v>88</v>
       </c>
       <c r="B38" s="1">
-        <v>5106.0</v>
+        <v>5106</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>14</v>
@@ -1917,15 +2562,15 @@
         <v>74</v>
       </c>
       <c r="F38" s="1">
-        <v>2.713880583E9</v>
-      </c>
-    </row>
-    <row r="39">
+        <v>2713880583</v>
+      </c>
+    </row>
+    <row r="39" customHeight="1" spans="1:6">
       <c r="A39" s="1" t="s">
         <v>85</v>
       </c>
       <c r="B39" s="1">
-        <v>103.0</v>
+        <v>103</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>41</v>
@@ -1937,15 +2582,15 @@
         <v>101</v>
       </c>
       <c r="F39" s="1">
-        <v>2.711995459E9</v>
-      </c>
-    </row>
-    <row r="40">
+        <v>2711995459</v>
+      </c>
+    </row>
+    <row r="40" customHeight="1" spans="1:6">
       <c r="A40" s="1" t="s">
         <v>102</v>
       </c>
       <c r="B40" s="1">
-        <v>203.0</v>
+        <v>203</v>
       </c>
       <c r="D40" s="1" t="s">
         <v>103</v>
@@ -1954,15 +2599,15 @@
         <v>104</v>
       </c>
       <c r="F40" s="1">
-        <v>2.711402528E9</v>
-      </c>
-    </row>
-    <row r="41">
+        <v>2711402528</v>
+      </c>
+    </row>
+    <row r="41" customHeight="1" spans="1:6">
       <c r="A41" s="1" t="s">
         <v>105</v>
       </c>
       <c r="B41" s="1">
-        <v>214.0</v>
+        <v>214</v>
       </c>
       <c r="D41" s="1" t="s">
         <v>106</v>
@@ -1971,15 +2616,15 @@
         <v>107</v>
       </c>
       <c r="F41" s="1">
-        <v>2.711481148E9</v>
-      </c>
-    </row>
-    <row r="42">
+        <v>2711481148</v>
+      </c>
+    </row>
+    <row r="42" customHeight="1" spans="1:6">
       <c r="A42" s="1" t="s">
         <v>105</v>
       </c>
       <c r="B42" s="1">
-        <v>219.0</v>
+        <v>219</v>
       </c>
       <c r="D42" s="1" t="s">
         <v>108</v>
@@ -1988,15 +2633,15 @@
         <v>109</v>
       </c>
       <c r="F42" s="1">
-        <v>2.711570468E9</v>
-      </c>
-    </row>
-    <row r="43">
+        <v>2711570468</v>
+      </c>
+    </row>
+    <row r="43" customHeight="1" spans="1:6">
       <c r="A43" s="1" t="s">
         <v>110</v>
       </c>
       <c r="B43" s="1">
-        <v>602.0</v>
+        <v>602</v>
       </c>
       <c r="C43" s="1" t="s">
         <v>8</v>
@@ -2008,15 +2653,15 @@
         <v>112</v>
       </c>
       <c r="F43" s="1">
-        <v>2.711667979E9</v>
-      </c>
-    </row>
-    <row r="44">
+        <v>2711667979</v>
+      </c>
+    </row>
+    <row r="44" customHeight="1" spans="1:6">
       <c r="A44" s="1" t="s">
         <v>110</v>
       </c>
       <c r="B44" s="1">
-        <v>608.0</v>
+        <v>608</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>14</v>
@@ -2028,15 +2673,15 @@
         <v>114</v>
       </c>
       <c r="F44" s="1">
-        <v>2.711977864E9</v>
-      </c>
-    </row>
-    <row r="45">
+        <v>2711977864</v>
+      </c>
+    </row>
+    <row r="45" customHeight="1" spans="1:6">
       <c r="A45" s="1" t="s">
         <v>115</v>
       </c>
       <c r="B45" s="1">
-        <v>5108.0</v>
+        <v>5108</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>14</v>
@@ -2048,15 +2693,15 @@
         <v>117</v>
       </c>
       <c r="F45" s="1">
-        <v>2.717067864E9</v>
-      </c>
-    </row>
-    <row r="46">
+        <v>2717067864</v>
+      </c>
+    </row>
+    <row r="46" customHeight="1" spans="1:6">
       <c r="A46" s="1" t="s">
         <v>118</v>
       </c>
       <c r="B46" s="1">
-        <v>5107.0</v>
+        <v>5107</v>
       </c>
       <c r="C46" s="1" t="s">
         <v>8</v>
@@ -2068,15 +2713,15 @@
         <v>120</v>
       </c>
       <c r="F46" s="1">
-        <v>2.711250954E9</v>
-      </c>
-    </row>
-    <row r="47">
+        <v>2711250954</v>
+      </c>
+    </row>
+    <row r="47" customHeight="1" spans="1:6">
       <c r="A47" s="1" t="s">
         <v>118</v>
       </c>
       <c r="B47" s="1">
-        <v>5103.0</v>
+        <v>5103</v>
       </c>
       <c r="C47" s="1" t="s">
         <v>41</v>
@@ -2088,15 +2733,15 @@
         <v>122</v>
       </c>
       <c r="F47" s="1">
-        <v>2.713880583E9</v>
-      </c>
-    </row>
-    <row r="48">
+        <v>2713880583</v>
+      </c>
+    </row>
+    <row r="48" customHeight="1" spans="1:6">
       <c r="A48" s="1" t="s">
         <v>85</v>
       </c>
       <c r="B48" s="1">
-        <v>111.0</v>
+        <v>111</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>14</v>
@@ -2108,15 +2753,15 @@
         <v>124</v>
       </c>
       <c r="F48" s="1">
-        <v>2.71226158E9</v>
-      </c>
-    </row>
-    <row r="49">
+        <v>2712261580</v>
+      </c>
+    </row>
+    <row r="49" customHeight="1" spans="1:6">
       <c r="A49" s="1" t="s">
         <v>125</v>
       </c>
       <c r="B49" s="1">
-        <v>102.0</v>
+        <v>102</v>
       </c>
       <c r="C49" s="1" t="s">
         <v>41</v>
@@ -2128,15 +2773,15 @@
         <v>127</v>
       </c>
       <c r="F49" s="1">
-        <v>2.711052056E9</v>
-      </c>
-    </row>
-    <row r="50">
+        <v>2711052056</v>
+      </c>
+    </row>
+    <row r="50" customHeight="1" spans="1:6">
       <c r="A50" s="1" t="s">
         <v>125</v>
       </c>
       <c r="B50" s="1">
-        <v>104.0</v>
+        <v>104</v>
       </c>
       <c r="C50" s="1" t="s">
         <v>8</v>
@@ -2148,15 +2793,15 @@
         <v>129</v>
       </c>
       <c r="F50" s="1">
-        <v>2.712106637E9</v>
-      </c>
-    </row>
-    <row r="51">
+        <v>2712106637</v>
+      </c>
+    </row>
+    <row r="51" customHeight="1" spans="1:6">
       <c r="A51" s="1" t="s">
         <v>125</v>
       </c>
       <c r="B51" s="1">
-        <v>104.0</v>
+        <v>104</v>
       </c>
       <c r="C51" s="1" t="s">
         <v>14</v>
@@ -2168,15 +2813,15 @@
         <v>131</v>
       </c>
       <c r="F51" s="1">
-        <v>2.712840741E9</v>
-      </c>
-    </row>
-    <row r="52">
+        <v>2712840741</v>
+      </c>
+    </row>
+    <row r="52" customHeight="1" spans="1:6">
       <c r="A52" s="1" t="s">
         <v>125</v>
       </c>
       <c r="B52" s="1">
-        <v>106.0</v>
+        <v>106</v>
       </c>
       <c r="C52" s="1" t="s">
         <v>41</v>
@@ -2188,15 +2833,15 @@
         <v>133</v>
       </c>
       <c r="F52" s="1">
-        <v>2.711232704E9</v>
-      </c>
-    </row>
-    <row r="53">
+        <v>2711232704</v>
+      </c>
+    </row>
+    <row r="53" customHeight="1" spans="1:6">
       <c r="A53" s="1" t="s">
         <v>125</v>
       </c>
       <c r="B53" s="1">
-        <v>108.0</v>
+        <v>108</v>
       </c>
       <c r="C53" s="1" t="s">
         <v>41</v>
@@ -2208,15 +2853,15 @@
         <v>135</v>
       </c>
       <c r="F53" s="1">
-        <v>2.712263863E9</v>
-      </c>
-    </row>
-    <row r="54">
+        <v>2712263863</v>
+      </c>
+    </row>
+    <row r="54" customHeight="1" spans="1:6">
       <c r="A54" s="1" t="s">
         <v>125</v>
       </c>
       <c r="B54" s="1">
-        <v>5515.0</v>
+        <v>5515</v>
       </c>
       <c r="C54" s="1" t="s">
         <v>14</v>
@@ -2228,15 +2873,15 @@
         <v>137</v>
       </c>
       <c r="F54" s="1">
-        <v>2.71784621E9</v>
-      </c>
-    </row>
-    <row r="55">
+        <v>2717846210</v>
+      </c>
+    </row>
+    <row r="55" customHeight="1" spans="1:6">
       <c r="A55" s="1" t="s">
         <v>125</v>
       </c>
       <c r="B55" s="1">
-        <v>5505.0</v>
+        <v>5505</v>
       </c>
       <c r="C55" s="1" t="s">
         <v>41</v>
@@ -2248,15 +2893,15 @@
         <v>139</v>
       </c>
       <c r="F55" s="1">
-        <v>2.712130986E9</v>
-      </c>
-    </row>
-    <row r="56">
+        <v>2712130986</v>
+      </c>
+    </row>
+    <row r="56" customHeight="1" spans="1:6">
       <c r="A56" s="1" t="s">
         <v>35</v>
       </c>
       <c r="B56" s="1">
-        <v>102.0</v>
+        <v>102</v>
       </c>
       <c r="C56" s="1" t="s">
         <v>32</v>
@@ -2268,15 +2913,15 @@
         <v>141</v>
       </c>
       <c r="F56" s="1">
-        <v>2.713891325E9</v>
-      </c>
-    </row>
-    <row r="57">
+        <v>2713891325</v>
+      </c>
+    </row>
+    <row r="57" customHeight="1" spans="1:6">
       <c r="A57" s="1" t="s">
         <v>35</v>
       </c>
       <c r="B57" s="1">
-        <v>103.0</v>
+        <v>103</v>
       </c>
       <c r="C57" s="1" t="s">
         <v>14</v>
@@ -2288,15 +2933,15 @@
         <v>143</v>
       </c>
       <c r="F57" s="1">
-        <v>2.71108587E9</v>
-      </c>
-    </row>
-    <row r="58">
+        <v>2711085870</v>
+      </c>
+    </row>
+    <row r="58" customHeight="1" spans="1:6">
       <c r="A58" s="1" t="s">
         <v>35</v>
       </c>
       <c r="B58" s="1">
-        <v>105.0</v>
+        <v>105</v>
       </c>
       <c r="C58" s="1" t="s">
         <v>14</v>
@@ -2308,15 +2953,15 @@
         <v>145</v>
       </c>
       <c r="F58" s="1">
-        <v>2.712090864E9</v>
-      </c>
-    </row>
-    <row r="59">
+        <v>2712090864</v>
+      </c>
+    </row>
+    <row r="59" customHeight="1" spans="1:6">
       <c r="A59" s="1" t="s">
         <v>146</v>
       </c>
       <c r="B59" s="1">
-        <v>100.0</v>
+        <v>100</v>
       </c>
       <c r="D59" s="1" t="s">
         <v>147</v>
@@ -2325,15 +2970,15 @@
         <v>148</v>
       </c>
       <c r="F59" s="1">
-        <v>2.711414679E9</v>
-      </c>
-    </row>
-    <row r="60">
+        <v>2711414679</v>
+      </c>
+    </row>
+    <row r="60" customHeight="1" spans="1:6">
       <c r="A60" s="1" t="s">
         <v>146</v>
       </c>
       <c r="B60" s="1">
-        <v>101.0</v>
+        <v>101</v>
       </c>
       <c r="D60" s="1" t="s">
         <v>149</v>
@@ -2342,15 +2987,15 @@
         <v>150</v>
       </c>
       <c r="F60" s="1">
-        <v>2.717097678E9</v>
-      </c>
-    </row>
-    <row r="61">
+        <v>2717097678</v>
+      </c>
+    </row>
+    <row r="61" customHeight="1" spans="1:6">
       <c r="A61" s="1" t="s">
         <v>146</v>
       </c>
       <c r="B61" s="1">
-        <v>103.0</v>
+        <v>103</v>
       </c>
       <c r="C61" s="1" t="s">
         <v>8</v>
@@ -2362,15 +3007,15 @@
         <v>152</v>
       </c>
       <c r="F61" s="1">
-        <v>2.711030401E9</v>
-      </c>
-    </row>
-    <row r="62">
+        <v>2711030401</v>
+      </c>
+    </row>
+    <row r="62" customHeight="1" spans="1:6">
       <c r="A62" s="3" t="s">
         <v>72</v>
       </c>
       <c r="B62" s="1">
-        <v>5307.0</v>
+        <v>5307</v>
       </c>
       <c r="D62" s="1" t="s">
         <v>153</v>
@@ -2379,15 +3024,15 @@
         <v>154</v>
       </c>
       <c r="F62" s="1">
-        <v>2.711472394E9</v>
-      </c>
-    </row>
-    <row r="63">
+        <v>2711472394</v>
+      </c>
+    </row>
+    <row r="63" customHeight="1" spans="1:6">
       <c r="A63" s="1" t="s">
         <v>155</v>
       </c>
       <c r="B63" s="1">
-        <v>825.0</v>
+        <v>825</v>
       </c>
       <c r="D63" s="1" t="s">
         <v>156</v>
@@ -2396,15 +3041,15 @@
         <v>157</v>
       </c>
       <c r="F63" s="1">
-        <v>2.711131096E9</v>
-      </c>
-    </row>
-    <row r="64">
+        <v>2711131096</v>
+      </c>
+    </row>
+    <row r="64" customHeight="1" spans="1:6">
       <c r="A64" s="1" t="s">
         <v>125</v>
       </c>
       <c r="B64" s="1">
-        <v>102.0</v>
+        <v>102</v>
       </c>
       <c r="C64" s="1" t="s">
         <v>8</v>
@@ -2416,15 +3061,15 @@
         <v>150</v>
       </c>
       <c r="F64" s="1">
-        <v>2.712261207E9</v>
-      </c>
-    </row>
-    <row r="65">
+        <v>2712261207</v>
+      </c>
+    </row>
+    <row r="65" customHeight="1" spans="1:6">
       <c r="A65" s="1" t="s">
         <v>159</v>
       </c>
       <c r="B65" s="1">
-        <v>4324.0</v>
+        <v>4324</v>
       </c>
       <c r="D65" s="1" t="s">
         <v>160</v>
@@ -2433,15 +3078,15 @@
         <v>161</v>
       </c>
       <c r="F65" s="1">
-        <v>2.747466065E9</v>
-      </c>
-    </row>
-    <row r="66">
+        <v>2747466065</v>
+      </c>
+    </row>
+    <row r="66" customHeight="1" spans="1:6">
       <c r="A66" s="1" t="s">
         <v>159</v>
       </c>
       <c r="B66" s="1">
-        <v>4314.0</v>
+        <v>4314</v>
       </c>
       <c r="D66" s="1" t="s">
         <v>162</v>
@@ -2450,15 +3095,15 @@
         <v>163</v>
       </c>
       <c r="F66" s="1">
-        <v>2.717114715E9</v>
-      </c>
-    </row>
-    <row r="67">
+        <v>2717114715</v>
+      </c>
+    </row>
+    <row r="67" customHeight="1" spans="1:6">
       <c r="A67" s="1" t="s">
         <v>159</v>
       </c>
       <c r="B67" s="1">
-        <v>4325.0</v>
+        <v>4325</v>
       </c>
       <c r="D67" s="1" t="s">
         <v>164</v>
@@ -2467,15 +3112,15 @@
         <v>165</v>
       </c>
       <c r="F67" s="1">
-        <v>2.711143948E9</v>
-      </c>
-    </row>
-    <row r="68">
+        <v>2711143948</v>
+      </c>
+    </row>
+    <row r="68" customHeight="1" spans="1:6">
       <c r="A68" s="1" t="s">
         <v>159</v>
       </c>
       <c r="B68" s="1">
-        <v>4322.0</v>
+        <v>4322</v>
       </c>
       <c r="D68" s="1" t="s">
         <v>166</v>
@@ -2484,15 +3129,15 @@
         <v>167</v>
       </c>
       <c r="F68" s="1">
-        <v>2.712069417E9</v>
-      </c>
-    </row>
-    <row r="69">
+        <v>2712069417</v>
+      </c>
+    </row>
+    <row r="69" customHeight="1" spans="1:6">
       <c r="A69" s="1" t="s">
         <v>159</v>
       </c>
       <c r="B69" s="1">
-        <v>4330.0</v>
+        <v>4330</v>
       </c>
       <c r="D69" s="1" t="s">
         <v>168</v>
@@ -2501,15 +3146,15 @@
         <v>169</v>
       </c>
       <c r="F69" s="1">
-        <v>2.711736256E9</v>
-      </c>
-    </row>
-    <row r="70">
+        <v>2711736256</v>
+      </c>
+    </row>
+    <row r="70" customHeight="1" spans="1:6">
       <c r="A70" s="1" t="s">
         <v>159</v>
       </c>
       <c r="B70" s="1">
-        <v>4318.0</v>
+        <v>4318</v>
       </c>
       <c r="D70" s="1" t="s">
         <v>170</v>
@@ -2518,15 +3163,15 @@
         <v>171</v>
       </c>
       <c r="F70" s="1">
-        <v>2.881333859E9</v>
-      </c>
-    </row>
-    <row r="71">
+        <v>2881333859</v>
+      </c>
+    </row>
+    <row r="71" customHeight="1" spans="1:6">
       <c r="A71" s="1" t="s">
         <v>159</v>
       </c>
       <c r="B71" s="1">
-        <v>4328.0</v>
+        <v>4328</v>
       </c>
       <c r="D71" s="1" t="s">
         <v>172</v>
@@ -2535,15 +3180,15 @@
         <v>173</v>
       </c>
       <c r="F71" s="1">
-        <v>2.711017112E9</v>
-      </c>
-    </row>
-    <row r="72">
+        <v>2711017112</v>
+      </c>
+    </row>
+    <row r="72" customHeight="1" spans="1:6">
       <c r="A72" s="1" t="s">
         <v>155</v>
       </c>
       <c r="B72" s="1">
-        <v>817.0</v>
+        <v>817</v>
       </c>
       <c r="D72" s="1" t="s">
         <v>174</v>
@@ -2552,15 +3197,15 @@
         <v>175</v>
       </c>
       <c r="F72" s="1">
-        <v>2.941467759E9</v>
-      </c>
-    </row>
-    <row r="73">
+        <v>2941467759</v>
+      </c>
+    </row>
+    <row r="73" customHeight="1" spans="1:6">
       <c r="A73" s="1" t="s">
         <v>155</v>
       </c>
       <c r="B73" s="1">
-        <v>831.0</v>
+        <v>831</v>
       </c>
       <c r="D73" s="1" t="s">
         <v>176</v>
@@ -2569,15 +3214,15 @@
         <v>177</v>
       </c>
       <c r="F73" s="1">
-        <v>2.712664917E9</v>
-      </c>
-    </row>
-    <row r="74">
+        <v>2712664917</v>
+      </c>
+    </row>
+    <row r="74" customHeight="1" spans="1:6">
       <c r="A74" s="1" t="s">
         <v>155</v>
       </c>
       <c r="B74" s="1">
-        <v>807.0</v>
+        <v>807</v>
       </c>
       <c r="D74" s="1" t="s">
         <v>123</v>
@@ -2586,15 +3231,15 @@
         <v>178</v>
       </c>
       <c r="F74" s="1">
-        <v>2.711017812E9</v>
-      </c>
-    </row>
-    <row r="75">
+        <v>2711017812</v>
+      </c>
+    </row>
+    <row r="75" customHeight="1" spans="1:6">
       <c r="A75" s="1" t="s">
         <v>179</v>
       </c>
       <c r="B75" s="1">
-        <v>4321.0</v>
+        <v>4321</v>
       </c>
       <c r="D75" s="1" t="s">
         <v>180</v>
@@ -2603,15 +3248,15 @@
         <v>181</v>
       </c>
       <c r="F75" s="1">
-        <v>2.712646148E9</v>
-      </c>
-    </row>
-    <row r="76">
+        <v>2712646148</v>
+      </c>
+    </row>
+    <row r="76" customHeight="1" spans="1:6">
       <c r="A76" s="1" t="s">
         <v>43</v>
       </c>
       <c r="B76" s="1">
-        <v>226.0</v>
+        <v>226</v>
       </c>
       <c r="D76" s="1" t="s">
         <v>44</v>
@@ -2620,15 +3265,15 @@
         <v>45</v>
       </c>
       <c r="F76" s="1">
-        <v>2.711217485E9</v>
-      </c>
-    </row>
-    <row r="77">
+        <v>2711217485</v>
+      </c>
+    </row>
+    <row r="77" customHeight="1" spans="1:6">
       <c r="A77" s="1" t="s">
         <v>46</v>
       </c>
       <c r="B77" s="1">
-        <v>103.0</v>
+        <v>103</v>
       </c>
       <c r="C77" s="1" t="s">
         <v>41</v>
@@ -2640,15 +3285,15 @@
         <v>48</v>
       </c>
       <c r="F77" s="1">
-        <v>2.711727485E9</v>
-      </c>
-    </row>
-    <row r="78">
+        <v>2711727485</v>
+      </c>
+    </row>
+    <row r="78" customHeight="1" spans="1:6">
       <c r="A78" s="1" t="s">
         <v>182</v>
       </c>
       <c r="B78" s="1">
-        <v>615.0</v>
+        <v>615</v>
       </c>
       <c r="C78" s="1" t="s">
         <v>8</v>
@@ -2660,15 +3305,15 @@
         <v>184</v>
       </c>
       <c r="F78" s="1">
-        <v>2.711030651E9</v>
-      </c>
-    </row>
-    <row r="79">
+        <v>2711030651</v>
+      </c>
+    </row>
+    <row r="79" customHeight="1" spans="1:6">
       <c r="A79" s="1" t="s">
         <v>182</v>
       </c>
       <c r="B79" s="1">
-        <v>802.0</v>
+        <v>802</v>
       </c>
       <c r="C79" s="1" t="s">
         <v>41</v>
@@ -2680,15 +3325,15 @@
         <v>185</v>
       </c>
       <c r="F79" s="1">
-        <v>2.29120362E9</v>
-      </c>
-    </row>
-    <row r="80">
+        <v>2291203620</v>
+      </c>
+    </row>
+    <row r="80" customHeight="1" spans="1:6">
       <c r="A80" s="1" t="s">
         <v>182</v>
       </c>
       <c r="B80" s="1">
-        <v>808.0</v>
+        <v>808</v>
       </c>
       <c r="C80" s="1" t="s">
         <v>32</v>
@@ -2700,15 +3345,15 @@
         <v>187</v>
       </c>
       <c r="F80" s="1">
-        <v>2.71212181E9</v>
-      </c>
-    </row>
-    <row r="81">
+        <v>2712121810</v>
+      </c>
+    </row>
+    <row r="81" customHeight="1" spans="1:6">
       <c r="A81" s="1" t="s">
         <v>182</v>
       </c>
       <c r="B81" s="1">
-        <v>615.0</v>
+        <v>615</v>
       </c>
       <c r="C81" s="1" t="s">
         <v>14</v>
@@ -2720,15 +3365,15 @@
         <v>189</v>
       </c>
       <c r="F81" s="1">
-        <v>2.711008698E9</v>
-      </c>
-    </row>
-    <row r="82">
+        <v>2711008698</v>
+      </c>
+    </row>
+    <row r="82" customHeight="1" spans="1:6">
       <c r="A82" s="1" t="s">
         <v>190</v>
       </c>
       <c r="B82" s="1">
-        <v>5308.0</v>
+        <v>5308</v>
       </c>
       <c r="D82" s="1" t="s">
         <v>136</v>
@@ -2737,15 +3382,15 @@
         <v>191</v>
       </c>
       <c r="F82" s="1">
-        <v>2.722952589E9</v>
-      </c>
-    </row>
-    <row r="83">
+        <v>2722952589</v>
+      </c>
+    </row>
+    <row r="83" customHeight="1" spans="1:6">
       <c r="A83" s="1" t="s">
         <v>190</v>
       </c>
       <c r="B83" s="1">
-        <v>5510.0</v>
+        <v>5510</v>
       </c>
       <c r="C83" s="1" t="s">
         <v>32</v>
@@ -2757,15 +3402,15 @@
         <v>193</v>
       </c>
       <c r="F83" s="1">
-        <v>2.711525838E9</v>
-      </c>
-    </row>
-    <row r="84">
+        <v>2711525838</v>
+      </c>
+    </row>
+    <row r="84" customHeight="1" spans="1:6">
       <c r="A84" s="1" t="s">
         <v>190</v>
       </c>
       <c r="B84" s="1">
-        <v>5901.0</v>
+        <v>5901</v>
       </c>
       <c r="C84" s="1" t="s">
         <v>41</v>
@@ -2777,15 +3422,15 @@
         <v>79</v>
       </c>
       <c r="F84" s="1">
-        <v>2.712397265E9</v>
-      </c>
-    </row>
-    <row r="85">
+        <v>2712397265</v>
+      </c>
+    </row>
+    <row r="85" customHeight="1" spans="1:6">
       <c r="A85" s="1" t="s">
         <v>190</v>
       </c>
       <c r="B85" s="1">
-        <v>5512.0</v>
+        <v>5512</v>
       </c>
       <c r="C85" s="1" t="s">
         <v>14</v>
@@ -2797,15 +3442,15 @@
         <v>196</v>
       </c>
       <c r="F85" s="1">
-        <v>2.712551472E9</v>
-      </c>
-    </row>
-    <row r="86">
+        <v>2712551472</v>
+      </c>
+    </row>
+    <row r="86" customHeight="1" spans="1:6">
       <c r="A86" s="1" t="s">
         <v>190</v>
       </c>
       <c r="B86" s="1">
-        <v>5504.0</v>
+        <v>5504</v>
       </c>
       <c r="C86" s="1" t="s">
         <v>41</v>
@@ -2817,15 +3462,15 @@
         <v>181</v>
       </c>
       <c r="F86" s="1">
-        <v>2.71105966E9</v>
-      </c>
-    </row>
-    <row r="87">
+        <v>2711059660</v>
+      </c>
+    </row>
+    <row r="87" customHeight="1" spans="1:6">
       <c r="A87" s="1" t="s">
         <v>198</v>
       </c>
       <c r="B87" s="1">
-        <v>5317.0</v>
+        <v>5317</v>
       </c>
       <c r="C87" s="1" t="s">
         <v>32</v>
@@ -2837,15 +3482,15 @@
         <v>200</v>
       </c>
       <c r="F87" s="1">
-        <v>2.71166744E9</v>
-      </c>
-    </row>
-    <row r="88">
+        <v>2711667440</v>
+      </c>
+    </row>
+    <row r="88" customHeight="1" spans="1:6">
       <c r="A88" s="1" t="s">
         <v>198</v>
       </c>
       <c r="B88" s="1">
-        <v>5305.0</v>
+        <v>5305</v>
       </c>
       <c r="C88" s="1" t="s">
         <v>8</v>
@@ -2857,15 +3502,15 @@
         <v>202</v>
       </c>
       <c r="F88" s="1">
-        <v>2.711352138E9</v>
-      </c>
-    </row>
-    <row r="89">
+        <v>2711352138</v>
+      </c>
+    </row>
+    <row r="89" customHeight="1" spans="1:6">
       <c r="A89" s="1" t="s">
         <v>198</v>
       </c>
       <c r="B89" s="1">
-        <v>5303.0</v>
+        <v>5303</v>
       </c>
       <c r="C89" s="1" t="s">
         <v>32</v>
@@ -2877,15 +3522,15 @@
         <v>204</v>
       </c>
       <c r="F89" s="1">
-        <v>2.942300155E9</v>
-      </c>
-    </row>
-    <row r="90">
+        <v>2942300155</v>
+      </c>
+    </row>
+    <row r="90" customHeight="1" spans="1:6">
       <c r="A90" s="1" t="s">
         <v>198</v>
       </c>
       <c r="B90" s="1">
-        <v>5313.0</v>
+        <v>5313</v>
       </c>
       <c r="C90" s="1" t="s">
         <v>8</v>
@@ -2897,15 +3542,15 @@
         <v>206</v>
       </c>
       <c r="F90" s="1">
-        <v>2.722339685E9</v>
-      </c>
-    </row>
-    <row r="91">
+        <v>2722339685</v>
+      </c>
+    </row>
+    <row r="91" customHeight="1" spans="1:6">
       <c r="A91" s="1" t="s">
         <v>198</v>
       </c>
       <c r="B91" s="1">
-        <v>5305.0</v>
+        <v>5305</v>
       </c>
       <c r="C91" s="1" t="s">
         <v>14</v>
@@ -2917,15 +3562,15 @@
         <v>208</v>
       </c>
       <c r="F91" s="1">
-        <v>2.712153722E9</v>
-      </c>
-    </row>
-    <row r="92">
+        <v>2712153722</v>
+      </c>
+    </row>
+    <row r="92" customHeight="1" spans="1:6">
       <c r="A92" s="1" t="s">
         <v>198</v>
       </c>
       <c r="B92" s="1">
-        <v>5311.0</v>
+        <v>5311</v>
       </c>
       <c r="C92" s="1" t="s">
         <v>32</v>
@@ -2937,15 +3582,15 @@
         <v>210</v>
       </c>
       <c r="F92" s="1">
-        <v>2.711074622E9</v>
-      </c>
-    </row>
-    <row r="93">
+        <v>2711074622</v>
+      </c>
+    </row>
+    <row r="93" customHeight="1" spans="1:6">
       <c r="A93" s="1" t="s">
         <v>198</v>
       </c>
       <c r="B93" s="1">
-        <v>5303.0</v>
+        <v>5303</v>
       </c>
       <c r="C93" s="1" t="s">
         <v>8</v>
@@ -2957,15 +3602,15 @@
         <v>212</v>
       </c>
       <c r="F93" s="1">
-        <v>2.381474304E9</v>
-      </c>
-    </row>
-    <row r="94">
+        <v>2381474304</v>
+      </c>
+    </row>
+    <row r="94" customHeight="1" spans="1:6">
       <c r="A94" s="1" t="s">
         <v>85</v>
       </c>
       <c r="B94" s="1">
-        <v>111.0</v>
+        <v>111</v>
       </c>
       <c r="C94" s="1" t="s">
         <v>14</v>
@@ -2977,15 +3622,15 @@
         <v>124</v>
       </c>
       <c r="F94" s="1">
-        <v>2.71226158E9</v>
-      </c>
-    </row>
-    <row r="95">
+        <v>2712261580</v>
+      </c>
+    </row>
+    <row r="95" customHeight="1" spans="1:6">
       <c r="A95" s="1" t="s">
         <v>125</v>
       </c>
       <c r="B95" s="1">
-        <v>102.0</v>
+        <v>102</v>
       </c>
       <c r="C95" s="1" t="s">
         <v>41</v>
@@ -2997,15 +3642,15 @@
         <v>127</v>
       </c>
       <c r="F95" s="1">
-        <v>2.711052056E9</v>
-      </c>
-    </row>
-    <row r="96">
+        <v>2711052056</v>
+      </c>
+    </row>
+    <row r="96" customHeight="1" spans="1:6">
       <c r="A96" s="1" t="s">
         <v>125</v>
       </c>
       <c r="B96" s="1">
-        <v>104.0</v>
+        <v>104</v>
       </c>
       <c r="C96" s="1" t="s">
         <v>8</v>
@@ -3017,15 +3662,15 @@
         <v>213</v>
       </c>
       <c r="F96" s="1">
-        <v>2.712106637E9</v>
-      </c>
-    </row>
-    <row r="97">
+        <v>2712106637</v>
+      </c>
+    </row>
+    <row r="97" customHeight="1" spans="1:6">
       <c r="A97" s="1" t="s">
         <v>125</v>
       </c>
       <c r="B97" s="1">
-        <v>104.0</v>
+        <v>104</v>
       </c>
       <c r="C97" s="1" t="s">
         <v>14</v>
@@ -3037,15 +3682,15 @@
         <v>131</v>
       </c>
       <c r="F97" s="1">
-        <v>2.712840741E9</v>
-      </c>
-    </row>
-    <row r="98">
+        <v>2712840741</v>
+      </c>
+    </row>
+    <row r="98" customHeight="1" spans="1:6">
       <c r="A98" s="1" t="s">
         <v>125</v>
       </c>
       <c r="B98" s="1">
-        <v>106.0</v>
+        <v>106</v>
       </c>
       <c r="C98" s="1" t="s">
         <v>41</v>
@@ -3057,15 +3702,15 @@
         <v>214</v>
       </c>
       <c r="F98" s="1">
-        <v>2.711232704E9</v>
-      </c>
-    </row>
-    <row r="99">
+        <v>2711232704</v>
+      </c>
+    </row>
+    <row r="99" customHeight="1" spans="1:6">
       <c r="A99" s="1" t="s">
         <v>125</v>
       </c>
       <c r="B99" s="1">
-        <v>108.0</v>
+        <v>108</v>
       </c>
       <c r="C99" s="1" t="s">
         <v>41</v>
@@ -3077,15 +3722,15 @@
         <v>139</v>
       </c>
       <c r="F99" s="1">
-        <v>2.712130986E9</v>
-      </c>
-    </row>
-    <row r="100">
+        <v>2712130986</v>
+      </c>
+    </row>
+    <row r="100" customHeight="1" spans="1:6">
       <c r="A100" s="1" t="s">
         <v>35</v>
       </c>
       <c r="B100" s="1">
-        <v>102.0</v>
+        <v>102</v>
       </c>
       <c r="C100" s="1" t="s">
         <v>32</v>
@@ -3097,15 +3742,15 @@
         <v>217</v>
       </c>
       <c r="F100" s="1">
-        <v>2.713891325E9</v>
-      </c>
-    </row>
-    <row r="101">
+        <v>2713891325</v>
+      </c>
+    </row>
+    <row r="101" customHeight="1" spans="1:6">
       <c r="A101" s="1" t="s">
         <v>35</v>
       </c>
       <c r="B101" s="1">
-        <v>103.0</v>
+        <v>103</v>
       </c>
       <c r="C101" s="1" t="s">
         <v>14</v>
@@ -3117,15 +3762,15 @@
         <v>143</v>
       </c>
       <c r="F101" s="1">
-        <v>2.71108587E9</v>
-      </c>
-    </row>
-    <row r="102">
+        <v>2711085870</v>
+      </c>
+    </row>
+    <row r="102" customHeight="1" spans="1:6">
       <c r="A102" s="1" t="s">
         <v>35</v>
       </c>
       <c r="B102" s="1">
-        <v>105.0</v>
+        <v>105</v>
       </c>
       <c r="C102" s="1" t="s">
         <v>14</v>
@@ -3137,15 +3782,15 @@
         <v>173</v>
       </c>
       <c r="F102" s="1">
-        <v>2.712090864E9</v>
-      </c>
-    </row>
-    <row r="103">
+        <v>2712090864</v>
+      </c>
+    </row>
+    <row r="103" customHeight="1" spans="1:6">
       <c r="A103" s="1" t="s">
         <v>146</v>
       </c>
       <c r="B103" s="1">
-        <v>100.0</v>
+        <v>100</v>
       </c>
       <c r="D103" s="1" t="s">
         <v>147</v>
@@ -3154,15 +3799,15 @@
         <v>148</v>
       </c>
       <c r="F103" s="1">
-        <v>2.711414679E9</v>
-      </c>
-    </row>
-    <row r="104">
+        <v>2711414679</v>
+      </c>
+    </row>
+    <row r="104" customHeight="1" spans="1:6">
       <c r="A104" s="1" t="s">
         <v>218</v>
       </c>
       <c r="B104" s="1">
-        <v>5305.0</v>
+        <v>5305</v>
       </c>
       <c r="C104" s="1" t="s">
         <v>219</v>
@@ -3174,15 +3819,15 @@
         <v>221</v>
       </c>
       <c r="F104" s="1">
-        <v>2.711365316E9</v>
-      </c>
-    </row>
-    <row r="105">
+        <v>2711365316</v>
+      </c>
+    </row>
+    <row r="105" customHeight="1" spans="1:6">
       <c r="A105" s="1" t="s">
         <v>77</v>
       </c>
       <c r="B105" s="1">
-        <v>4705.0</v>
+        <v>4705</v>
       </c>
       <c r="C105" s="1" t="s">
         <v>32</v>
@@ -3194,15 +3839,15 @@
         <v>222</v>
       </c>
       <c r="F105" s="1">
-        <v>2.711098614E9</v>
-      </c>
-    </row>
-    <row r="106">
+        <v>2711098614</v>
+      </c>
+    </row>
+    <row r="106" customHeight="1" spans="1:6">
       <c r="A106" s="1" t="s">
         <v>77</v>
       </c>
       <c r="B106" s="1">
-        <v>4709.0</v>
+        <v>4709</v>
       </c>
       <c r="C106" s="1" t="s">
         <v>8</v>
@@ -3214,15 +3859,15 @@
         <v>224</v>
       </c>
       <c r="F106" s="1">
-        <v>8.78147812E9</v>
-      </c>
-    </row>
-    <row r="107">
+        <v>8781478120</v>
+      </c>
+    </row>
+    <row r="107" customHeight="1" spans="1:6">
       <c r="A107" s="1" t="s">
         <v>77</v>
       </c>
       <c r="B107" s="1">
-        <v>4312.0</v>
+        <v>4312</v>
       </c>
       <c r="C107" s="1" t="s">
         <v>8</v>
@@ -3234,15 +3879,15 @@
         <v>226</v>
       </c>
       <c r="F107" s="1">
-        <v>2.71159147E9</v>
-      </c>
-    </row>
-    <row r="108">
+        <v>2711591470</v>
+      </c>
+    </row>
+    <row r="108" customHeight="1" spans="1:6">
       <c r="A108" s="1" t="s">
         <v>77</v>
       </c>
       <c r="B108" s="1">
-        <v>4701.0</v>
+        <v>4701</v>
       </c>
       <c r="C108" s="1" t="s">
         <v>11</v>
@@ -3254,15 +3899,15 @@
         <v>227</v>
       </c>
       <c r="F108" s="1">
-        <v>2.71122972E9</v>
-      </c>
-    </row>
-    <row r="109">
+        <v>2711229720</v>
+      </c>
+    </row>
+    <row r="109" customHeight="1" spans="1:6">
       <c r="A109" s="1" t="s">
         <v>77</v>
       </c>
       <c r="B109" s="1">
-        <v>4701.0</v>
+        <v>4701</v>
       </c>
       <c r="C109" s="1" t="s">
         <v>8</v>
@@ -3274,15 +3919,15 @@
         <v>229</v>
       </c>
       <c r="F109" s="1">
-        <v>2.712123584E9</v>
-      </c>
-    </row>
-    <row r="110">
+        <v>2712123584</v>
+      </c>
+    </row>
+    <row r="110" customHeight="1" spans="1:6">
       <c r="A110" s="1" t="s">
         <v>77</v>
       </c>
       <c r="B110" s="1">
-        <v>4701.0</v>
+        <v>4701</v>
       </c>
       <c r="C110" s="1" t="s">
         <v>32</v>
@@ -3294,15 +3939,15 @@
         <v>231</v>
       </c>
       <c r="F110" s="1">
-        <v>2.717407138E9</v>
-      </c>
-    </row>
-    <row r="111">
+        <v>2717407138</v>
+      </c>
+    </row>
+    <row r="111" customHeight="1" spans="1:6">
       <c r="A111" s="1" t="s">
         <v>77</v>
       </c>
       <c r="B111" s="1">
-        <v>4703.0</v>
+        <v>4703</v>
       </c>
       <c r="C111" s="1" t="s">
         <v>11</v>
@@ -3314,15 +3959,15 @@
         <v>233</v>
       </c>
       <c r="F111" s="1">
-        <v>2.712348603E9</v>
-      </c>
-    </row>
-    <row r="112">
+        <v>2712348603</v>
+      </c>
+    </row>
+    <row r="112" customHeight="1" spans="1:6">
       <c r="A112" s="1" t="s">
         <v>77</v>
       </c>
       <c r="B112" s="1">
-        <v>4703.0</v>
+        <v>4703</v>
       </c>
       <c r="C112" s="1" t="s">
         <v>219</v>
@@ -3334,15 +3979,15 @@
         <v>234</v>
       </c>
       <c r="F112" s="1">
-        <v>2.713172104E9</v>
-      </c>
-    </row>
-    <row r="113">
+        <v>2713172104</v>
+      </c>
+    </row>
+    <row r="113" customHeight="1" spans="1:6">
       <c r="A113" s="1" t="s">
         <v>77</v>
       </c>
       <c r="B113" s="1">
-        <v>4703.0</v>
+        <v>4703</v>
       </c>
       <c r="C113" s="1" t="s">
         <v>32</v>
@@ -3354,15 +3999,15 @@
         <v>236</v>
       </c>
       <c r="F113" s="1">
-        <v>2.71206466E9</v>
-      </c>
-    </row>
-    <row r="114">
+        <v>2712064660</v>
+      </c>
+    </row>
+    <row r="114" customHeight="1" spans="1:5">
       <c r="A114" s="1" t="s">
         <v>77</v>
       </c>
       <c r="B114" s="1">
-        <v>4314.0</v>
+        <v>4314</v>
       </c>
       <c r="C114" s="1" t="s">
         <v>32</v>
@@ -3374,12 +4019,12 @@
         <v>238</v>
       </c>
     </row>
-    <row r="115">
+    <row r="115" customHeight="1" spans="1:6">
       <c r="A115" s="1" t="s">
         <v>239</v>
       </c>
       <c r="B115" s="1">
-        <v>4300.0</v>
+        <v>4300</v>
       </c>
       <c r="C115" s="1" t="s">
         <v>32</v>
@@ -3391,15 +4036,15 @@
         <v>241</v>
       </c>
       <c r="F115" s="1">
-        <v>2.781154504E9</v>
-      </c>
-    </row>
-    <row r="116">
+        <v>2781154504</v>
+      </c>
+    </row>
+    <row r="116" customHeight="1" spans="1:6">
       <c r="A116" s="1" t="s">
         <v>239</v>
       </c>
       <c r="B116" s="1">
-        <v>4306.0</v>
+        <v>4306</v>
       </c>
       <c r="C116" s="1" t="s">
         <v>14</v>
@@ -3411,15 +4056,15 @@
         <v>242</v>
       </c>
       <c r="F116" s="1">
-        <v>2.712648076E9</v>
-      </c>
-    </row>
-    <row r="117">
+        <v>2712648076</v>
+      </c>
+    </row>
+    <row r="117" customHeight="1" spans="1:5">
       <c r="A117" s="1" t="s">
         <v>239</v>
       </c>
       <c r="B117" s="1">
-        <v>4306.0</v>
+        <v>4306</v>
       </c>
       <c r="C117" s="1" t="s">
         <v>11</v>
@@ -3431,12 +4076,12 @@
         <v>244</v>
       </c>
     </row>
-    <row r="118">
+    <row r="118" customHeight="1" spans="1:6">
       <c r="A118" s="1" t="s">
         <v>239</v>
       </c>
       <c r="B118" s="1">
-        <v>4306.0</v>
+        <v>4306</v>
       </c>
       <c r="C118" s="1" t="s">
         <v>219</v>
@@ -3448,15 +4093,15 @@
         <v>245</v>
       </c>
       <c r="F118" s="1">
-        <v>2.712648076E9</v>
-      </c>
-    </row>
-    <row r="119">
+        <v>2712648076</v>
+      </c>
+    </row>
+    <row r="119" customHeight="1" spans="1:6">
       <c r="A119" s="1" t="s">
         <v>239</v>
       </c>
       <c r="B119" s="1">
-        <v>4308.0</v>
+        <v>4308</v>
       </c>
       <c r="C119" s="1" t="s">
         <v>8</v>
@@ -3468,15 +4113,15 @@
         <v>247</v>
       </c>
       <c r="F119" s="1">
-        <v>2.711726362E9</v>
-      </c>
-    </row>
-    <row r="120">
+        <v>2711726362</v>
+      </c>
+    </row>
+    <row r="120" customHeight="1" spans="1:6">
       <c r="A120" s="1" t="s">
         <v>239</v>
       </c>
       <c r="B120" s="1">
-        <v>5102.0</v>
+        <v>5102</v>
       </c>
       <c r="C120" s="1" t="s">
         <v>11</v>
@@ -3488,15 +4133,15 @@
         <v>248</v>
       </c>
       <c r="F120" s="1">
-        <v>2.711871592E9</v>
-      </c>
-    </row>
-    <row r="121">
+        <v>2711871592</v>
+      </c>
+    </row>
+    <row r="121" customHeight="1" spans="1:6">
       <c r="A121" s="1" t="s">
         <v>239</v>
       </c>
       <c r="B121" s="1">
-        <v>4110.0</v>
+        <v>4110</v>
       </c>
       <c r="C121" s="1" t="s">
         <v>14</v>
@@ -3508,15 +4153,15 @@
         <v>250</v>
       </c>
       <c r="F121" s="1">
-        <v>2.781216689E9</v>
-      </c>
-    </row>
-    <row r="122">
+        <v>2781216689</v>
+      </c>
+    </row>
+    <row r="122" customHeight="1" spans="1:6">
       <c r="A122" s="1" t="s">
         <v>239</v>
       </c>
       <c r="B122" s="1">
-        <v>4110.0</v>
+        <v>4110</v>
       </c>
       <c r="C122" s="1" t="s">
         <v>11</v>
@@ -3528,15 +4173,15 @@
         <v>252</v>
       </c>
       <c r="F122" s="1">
-        <v>2.711663198E9</v>
-      </c>
-    </row>
-    <row r="123">
+        <v>2711663198</v>
+      </c>
+    </row>
+    <row r="123" customHeight="1" spans="1:6">
       <c r="A123" s="1" t="s">
         <v>253</v>
       </c>
       <c r="B123" s="1">
-        <v>4327.0</v>
+        <v>4327</v>
       </c>
       <c r="D123" s="1" t="s">
         <v>254</v>
@@ -3545,15 +4190,15 @@
         <v>255</v>
       </c>
       <c r="F123" s="1">
-        <v>2.711792261E9</v>
-      </c>
-    </row>
-    <row r="124">
+        <v>2711792261</v>
+      </c>
+    </row>
+    <row r="124" customHeight="1" spans="1:6">
       <c r="A124" s="1" t="s">
         <v>253</v>
       </c>
       <c r="B124" s="1">
-        <v>4140.0</v>
+        <v>4140</v>
       </c>
       <c r="D124" s="1" t="s">
         <v>256</v>
@@ -3562,15 +4207,15 @@
         <v>257</v>
       </c>
       <c r="F124" s="1">
-        <v>2.712171519E9</v>
-      </c>
-    </row>
-    <row r="125">
+        <v>2712171519</v>
+      </c>
+    </row>
+    <row r="125" customHeight="1" spans="1:6">
       <c r="A125" s="1" t="s">
         <v>253</v>
       </c>
       <c r="B125" s="1">
-        <v>4136.0</v>
+        <v>4136</v>
       </c>
       <c r="D125" s="1" t="s">
         <v>258</v>
@@ -3579,15 +4224,15 @@
         <v>259</v>
       </c>
       <c r="F125" s="1">
-        <v>2.711051928E9</v>
-      </c>
-    </row>
-    <row r="126">
+        <v>2711051928</v>
+      </c>
+    </row>
+    <row r="126" customHeight="1" spans="1:6">
       <c r="A126" s="1" t="s">
         <v>218</v>
       </c>
       <c r="B126" s="1">
-        <v>5304.0</v>
+        <v>5304</v>
       </c>
       <c r="C126" s="1" t="s">
         <v>41</v>
@@ -3599,15 +4244,15 @@
         <v>261</v>
       </c>
       <c r="F126" s="1">
-        <v>2.711537178E9</v>
-      </c>
-    </row>
-    <row r="127">
+        <v>2711537178</v>
+      </c>
+    </row>
+    <row r="127" customHeight="1" spans="1:6">
       <c r="A127" s="1" t="s">
         <v>218</v>
       </c>
       <c r="B127" s="1">
-        <v>5302.0</v>
+        <v>5302</v>
       </c>
       <c r="C127" s="1" t="s">
         <v>8</v>
@@ -3619,15 +4264,15 @@
         <v>263</v>
       </c>
       <c r="F127" s="1">
-        <v>2.713177237E9</v>
-      </c>
-    </row>
-    <row r="128">
+        <v>2713177237</v>
+      </c>
+    </row>
+    <row r="128" customHeight="1" spans="1:6">
       <c r="A128" s="1" t="s">
         <v>54</v>
       </c>
       <c r="B128" s="1">
-        <v>309.0</v>
+        <v>309</v>
       </c>
       <c r="C128" s="1" t="s">
         <v>14</v>
@@ -3639,15 +4284,15 @@
         <v>265</v>
       </c>
       <c r="F128" s="1">
-        <v>2.711201374E9</v>
-      </c>
-    </row>
-    <row r="129">
+        <v>2711201374</v>
+      </c>
+    </row>
+    <row r="129" customHeight="1" spans="1:6">
       <c r="A129" s="1" t="s">
         <v>40</v>
       </c>
       <c r="B129" s="1">
-        <v>306.0</v>
+        <v>306</v>
       </c>
       <c r="C129" s="1" t="s">
         <v>14</v>
@@ -3659,15 +4304,15 @@
         <v>267</v>
       </c>
       <c r="F129" s="1">
-        <v>2.7111628823E10</v>
-      </c>
-    </row>
-    <row r="130">
+        <v>27111628823</v>
+      </c>
+    </row>
+    <row r="130" customHeight="1" spans="1:6">
       <c r="A130" s="1" t="s">
         <v>40</v>
       </c>
       <c r="B130" s="1">
-        <v>306.0</v>
+        <v>306</v>
       </c>
       <c r="C130" s="1" t="s">
         <v>32</v>
@@ -3679,15 +4324,15 @@
         <v>269</v>
       </c>
       <c r="F130" s="1">
-        <v>2.711400953E9</v>
-      </c>
-    </row>
-    <row r="131">
+        <v>2711400953</v>
+      </c>
+    </row>
+    <row r="131" customHeight="1" spans="1:6">
       <c r="A131" s="1" t="s">
         <v>40</v>
       </c>
       <c r="B131" s="1">
-        <v>312.0</v>
+        <v>312</v>
       </c>
       <c r="C131" s="1" t="s">
         <v>8</v>
@@ -3699,15 +4344,15 @@
         <v>23</v>
       </c>
       <c r="F131" s="1">
-        <v>2.71125762E9</v>
-      </c>
-    </row>
-    <row r="132">
+        <v>2711257620</v>
+      </c>
+    </row>
+    <row r="132" customHeight="1" spans="1:6">
       <c r="A132" s="1" t="s">
         <v>40</v>
       </c>
       <c r="B132" s="1">
-        <v>317.0</v>
+        <v>317</v>
       </c>
       <c r="C132" s="1" t="s">
         <v>14</v>
@@ -3719,15 +4364,15 @@
         <v>272</v>
       </c>
       <c r="F132" s="1">
-        <v>2.711017709E9</v>
-      </c>
-    </row>
-    <row r="133">
+        <v>2711017709</v>
+      </c>
+    </row>
+    <row r="133" customHeight="1" spans="1:6">
       <c r="A133" s="1" t="s">
         <v>40</v>
       </c>
       <c r="B133" s="1">
-        <v>317.0</v>
+        <v>317</v>
       </c>
       <c r="C133" s="1" t="s">
         <v>32</v>
@@ -3739,15 +4384,15 @@
         <v>150</v>
       </c>
       <c r="F133" s="1">
-        <v>2.712262798E9</v>
-      </c>
-    </row>
-    <row r="134">
+        <v>2712262798</v>
+      </c>
+    </row>
+    <row r="134" customHeight="1" spans="1:6">
       <c r="A134" s="1" t="s">
         <v>40</v>
       </c>
       <c r="B134" s="1">
-        <v>315.0</v>
+        <v>315</v>
       </c>
       <c r="C134" s="1" t="s">
         <v>11</v>
@@ -3759,15 +4404,15 @@
         <v>275</v>
       </c>
       <c r="F134" s="1">
-        <v>2.712089231E9</v>
-      </c>
-    </row>
-    <row r="135">
+        <v>2712089231</v>
+      </c>
+    </row>
+    <row r="135" customHeight="1" spans="1:6">
       <c r="A135" s="1" t="s">
         <v>40</v>
       </c>
       <c r="B135" s="1">
-        <v>315.0</v>
+        <v>315</v>
       </c>
       <c r="C135" s="1" t="s">
         <v>276</v>
@@ -3779,15 +4424,15 @@
         <v>278</v>
       </c>
       <c r="F135" s="1">
-        <v>2.712553444E9</v>
-      </c>
-    </row>
-    <row r="136">
+        <v>2712553444</v>
+      </c>
+    </row>
+    <row r="136" customHeight="1" spans="1:6">
       <c r="A136" s="1" t="s">
         <v>40</v>
       </c>
       <c r="B136" s="1">
-        <v>311.0</v>
+        <v>311</v>
       </c>
       <c r="C136" s="1" t="s">
         <v>14</v>
@@ -3799,15 +4444,15 @@
         <v>279</v>
       </c>
       <c r="F136" s="1">
-        <v>2.712172619E9</v>
-      </c>
-    </row>
-    <row r="137">
+        <v>2712172619</v>
+      </c>
+    </row>
+    <row r="137" customHeight="1" spans="1:6">
       <c r="A137" s="1" t="s">
         <v>40</v>
       </c>
       <c r="B137" s="1">
-        <v>311.0</v>
+        <v>311</v>
       </c>
       <c r="C137" s="1" t="s">
         <v>32</v>
@@ -3819,15 +4464,15 @@
         <v>281</v>
       </c>
       <c r="F137" s="1">
-        <v>2.717495806E9</v>
-      </c>
-    </row>
-    <row r="138">
+        <v>2717495806</v>
+      </c>
+    </row>
+    <row r="138" customHeight="1" spans="1:6">
       <c r="A138" s="1" t="s">
         <v>80</v>
       </c>
       <c r="B138" s="1">
-        <v>4706.0</v>
+        <v>4706</v>
       </c>
       <c r="D138" s="1" t="s">
         <v>282</v>
@@ -3836,15 +4481,15 @@
         <v>283</v>
       </c>
       <c r="F138" s="1">
-        <v>2.712295041E9</v>
-      </c>
-    </row>
-    <row r="139">
+        <v>2712295041</v>
+      </c>
+    </row>
+    <row r="139" customHeight="1" spans="1:6">
       <c r="A139" s="1" t="s">
         <v>80</v>
       </c>
       <c r="B139" s="1">
-        <v>4716.0</v>
+        <v>4716</v>
       </c>
       <c r="D139" s="1" t="s">
         <v>284</v>
@@ -3853,15 +4498,15 @@
         <v>285</v>
       </c>
       <c r="F139" s="1">
-        <v>2.711246251E9</v>
-      </c>
-    </row>
-    <row r="140">
+        <v>2711246251</v>
+      </c>
+    </row>
+    <row r="140" customHeight="1" spans="1:6">
       <c r="A140" s="1" t="s">
         <v>80</v>
       </c>
       <c r="B140" s="1">
-        <v>4725.0</v>
+        <v>4725</v>
       </c>
       <c r="D140" s="1" t="s">
         <v>286</v>
@@ -3870,15 +4515,15 @@
         <v>287</v>
       </c>
       <c r="F140" s="1">
-        <v>2.712301786E9</v>
-      </c>
-    </row>
-    <row r="141">
+        <v>2712301786</v>
+      </c>
+    </row>
+    <row r="141" customHeight="1" spans="1:6">
       <c r="A141" s="1" t="s">
         <v>80</v>
       </c>
       <c r="B141" s="1">
-        <v>4738.0</v>
+        <v>4738</v>
       </c>
       <c r="D141" s="1" t="s">
         <v>108</v>
@@ -3887,15 +4532,15 @@
         <v>288</v>
       </c>
       <c r="F141" s="1">
-        <v>2.711595148E9</v>
-      </c>
-    </row>
-    <row r="142">
+        <v>2711595148</v>
+      </c>
+    </row>
+    <row r="142" customHeight="1" spans="1:6">
       <c r="A142" s="1" t="s">
         <v>80</v>
       </c>
       <c r="B142" s="1">
-        <v>4913.0</v>
+        <v>4913</v>
       </c>
       <c r="D142" s="1" t="s">
         <v>289</v>
@@ -3904,15 +4549,15 @@
         <v>290</v>
       </c>
       <c r="F142" s="1">
-        <v>2.781030883E9</v>
-      </c>
-    </row>
-    <row r="143">
+        <v>2781030883</v>
+      </c>
+    </row>
+    <row r="143" customHeight="1" spans="1:6">
       <c r="A143" s="1" t="s">
         <v>291</v>
       </c>
       <c r="B143" s="1">
-        <v>346.0</v>
+        <v>346</v>
       </c>
       <c r="D143" s="1" t="s">
         <v>151</v>
@@ -3921,15 +4566,15 @@
         <v>292</v>
       </c>
       <c r="F143" s="1">
-        <v>2.81246431E8</v>
-      </c>
-    </row>
-    <row r="144">
+        <v>281246431</v>
+      </c>
+    </row>
+    <row r="144" customHeight="1" spans="1:6">
       <c r="A144" s="1" t="s">
         <v>291</v>
       </c>
       <c r="B144" s="1">
-        <v>338.0</v>
+        <v>338</v>
       </c>
       <c r="D144" s="1" t="s">
         <v>293</v>
@@ -3938,15 +4583,15 @@
         <v>294</v>
       </c>
       <c r="F144" s="1">
-        <v>2.712064983E9</v>
-      </c>
-    </row>
-    <row r="145">
+        <v>2712064983</v>
+      </c>
+    </row>
+    <row r="145" customHeight="1" spans="1:6">
       <c r="A145" s="1" t="s">
         <v>291</v>
       </c>
       <c r="B145" s="1">
-        <v>332.0</v>
+        <v>332</v>
       </c>
       <c r="D145" s="1" t="s">
         <v>295</v>
@@ -3955,15 +4600,15 @@
         <v>296</v>
       </c>
       <c r="F145" s="1">
-        <v>2.711650911E9</v>
-      </c>
-    </row>
-    <row r="146">
+        <v>2711650911</v>
+      </c>
+    </row>
+    <row r="146" customHeight="1" spans="1:6">
       <c r="A146" s="1" t="s">
         <v>291</v>
       </c>
       <c r="B146" s="1">
-        <v>326.0</v>
+        <v>326</v>
       </c>
       <c r="D146" s="1" t="s">
         <v>78</v>
@@ -3972,15 +4617,15 @@
         <v>297</v>
       </c>
       <c r="F146" s="1">
-        <v>2.712069001E9</v>
-      </c>
-    </row>
-    <row r="147">
+        <v>2712069001</v>
+      </c>
+    </row>
+    <row r="147" customHeight="1" spans="1:6">
       <c r="A147" s="1" t="s">
         <v>291</v>
       </c>
       <c r="B147" s="1">
-        <v>318.0</v>
+        <v>318</v>
       </c>
       <c r="D147" s="1" t="s">
         <v>298</v>
@@ -3989,15 +4634,15 @@
         <v>299</v>
       </c>
       <c r="F147" s="1">
-        <v>2.717021827E9</v>
-      </c>
-    </row>
-    <row r="148">
+        <v>2717021827</v>
+      </c>
+    </row>
+    <row r="148" customHeight="1" spans="1:6">
       <c r="A148" s="1" t="s">
         <v>291</v>
       </c>
       <c r="B148" s="1">
-        <v>302.0</v>
+        <v>302</v>
       </c>
       <c r="D148" s="1" t="s">
         <v>300</v>
@@ -4006,15 +4651,15 @@
         <v>301</v>
       </c>
       <c r="F148" s="1">
-        <v>2.712110007E9</v>
-      </c>
-    </row>
-    <row r="149">
+        <v>2712110007</v>
+      </c>
+    </row>
+    <row r="149" customHeight="1" spans="1:6">
       <c r="A149" s="1" t="s">
         <v>291</v>
       </c>
       <c r="B149" s="1">
-        <v>300.0</v>
+        <v>300</v>
       </c>
       <c r="D149" s="1" t="s">
         <v>302</v>
@@ -4023,10 +4668,11 @@
         <v>303</v>
       </c>
       <c r="F149" s="1">
-        <v>2.711145415E9</v>
+        <v>2711145415</v>
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>